--- a/biology/Médecine/Index_Medicus/Index_Medicus.xlsx
+++ b/biology/Médecine/Index_Medicus/Index_Medicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Index Medicus (IM) est une publication de la Bibliothèque américaine de médecine qui regroupe les tables des matières des principales revues biomédicales et de médecine, d'abord américaines, puis internationales. La publication a commencé en 1879 et s'est arrêté en 2004 avec le volume numéro 45, lorsque la base de données MEDLINE a pris le relai. 
